--- a/Emotions-1794898690.xlsx
+++ b/Emotions-1794898690.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Дата</t>
   </si>
@@ -37,6 +37,9 @@
     <t>20:02:40.975592</t>
   </si>
   <si>
+    <t>22:33:52.752481</t>
+  </si>
+  <si>
     <t>подавленность</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>Невозможностью сделать запланированное на сегодня</t>
+  </si>
+  <si>
+    <t>Сложившимися обстоятельствами</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -462,10 +468,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -479,10 +485,27 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44489</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
